--- a/Code/Results/Cases/Case_1_225/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_225/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.233403953208883</v>
+        <v>7.818807045481801</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>7.645669508361154</v>
+        <v>9.161649988426518</v>
       </c>
       <c r="E2">
-        <v>11.10447537386353</v>
+        <v>13.67796320441161</v>
       </c>
       <c r="F2">
-        <v>22.96584722387388</v>
+        <v>33.13432706867357</v>
       </c>
       <c r="G2">
-        <v>2.090796181028252</v>
+        <v>3.657624966194494</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.370647091771915</v>
+        <v>9.943717855007101</v>
       </c>
       <c r="K2">
-        <v>18.5104713106158</v>
+        <v>12.87557468250796</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.88567906454207</v>
+        <v>25.00234414343934</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6.879289159900173</v>
+        <v>7.748103423656503</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>7.268361047158574</v>
+        <v>9.093153101097551</v>
       </c>
       <c r="E3">
-        <v>10.61700996326809</v>
+        <v>13.61111433209262</v>
       </c>
       <c r="F3">
-        <v>22.60919819724107</v>
+        <v>33.21631978249429</v>
       </c>
       <c r="G3">
-        <v>2.096669325564954</v>
+        <v>3.659817400840919</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.263107253468034</v>
+        <v>9.951689377248785</v>
       </c>
       <c r="K3">
-        <v>17.37561854587287</v>
+        <v>12.41343131606949</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>15.89452639487617</v>
+        <v>25.11078579430545</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6.655797189018145</v>
+        <v>7.7062190359354</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>7.029271361649553</v>
+        <v>9.05219716643666</v>
       </c>
       <c r="E4">
-        <v>10.31244085815136</v>
+        <v>13.57268373807857</v>
       </c>
       <c r="F4">
-        <v>22.41389522860819</v>
+        <v>33.27606293987089</v>
       </c>
       <c r="G4">
-        <v>2.100381390731918</v>
+        <v>3.661234502412696</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.199963870797073</v>
+        <v>9.958219330258199</v>
       </c>
       <c r="K4">
-        <v>16.64083476979068</v>
+        <v>12.12120271468018</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>15.91921881904144</v>
+        <v>25.18384123941853</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6.563325320615265</v>
+        <v>7.689553792019252</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>6.930088234411951</v>
+        <v>9.03579801745045</v>
       </c>
       <c r="E5">
-        <v>10.18717553601297</v>
+        <v>13.55769263197289</v>
       </c>
       <c r="F5">
-        <v>22.34016398545861</v>
+        <v>33.30276389229012</v>
       </c>
       <c r="G5">
-        <v>2.101921486665192</v>
+        <v>3.661829878419572</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.174968325469733</v>
+        <v>9.961291725580431</v>
       </c>
       <c r="K5">
-        <v>16.33189127094894</v>
+        <v>12.00015017795923</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>15.93389531169817</v>
+        <v>25.21523403794422</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6.547890186964659</v>
+        <v>7.68681141416403</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>6.913516844755847</v>
+        <v>9.033092903206466</v>
       </c>
       <c r="E6">
-        <v>10.16631130203092</v>
+        <v>13.55524415362335</v>
       </c>
       <c r="F6">
-        <v>22.32827136489928</v>
+        <v>33.30733954942804</v>
       </c>
       <c r="G6">
-        <v>2.102178894857094</v>
+        <v>3.661929822700615</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.170862544745088</v>
+        <v>9.961826743501025</v>
       </c>
       <c r="K6">
-        <v>16.28001840959794</v>
+        <v>11.97993578715329</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>15.93660430407564</v>
+        <v>25.22054460393018</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6.654555554147583</v>
+        <v>7.705992626704377</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>7.027940672634989</v>
+        <v>9.051974806803125</v>
       </c>
       <c r="E7">
-        <v>10.31075590144057</v>
+        <v>13.57247883593335</v>
       </c>
       <c r="F7">
-        <v>22.41287729757821</v>
+        <v>33.27641351410345</v>
       </c>
       <c r="G7">
-        <v>2.100402049083711</v>
+        <v>3.661242459326931</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.19962378030966</v>
+        <v>9.958259099849782</v>
       </c>
       <c r="K7">
-        <v>16.63670670239787</v>
+        <v>12.11957789447645</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>15.91939837209307</v>
+        <v>25.18425805288345</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.112634317166087</v>
+        <v>7.794122802631111</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>7.517176035054272</v>
+        <v>9.137812056055832</v>
       </c>
       <c r="E8">
-        <v>10.93758613080672</v>
+        <v>13.65437854804483</v>
       </c>
       <c r="F8">
-        <v>22.83790710408462</v>
+        <v>33.1606424973141</v>
       </c>
       <c r="G8">
-        <v>2.092799726513467</v>
+        <v>3.658366229320456</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.33297468620427</v>
+        <v>9.94612712693743</v>
       </c>
       <c r="K8">
-        <v>18.12707209606694</v>
+        <v>12.71807840214115</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>15.88459490448532</v>
+        <v>25.03838844256347</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.95817662923213</v>
+        <v>7.978210935358105</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>8.413645197619179</v>
+        <v>9.314253306572825</v>
       </c>
       <c r="E9">
-        <v>12.11863765282867</v>
+        <v>13.8351577585505</v>
       </c>
       <c r="F9">
-        <v>23.86263538993091</v>
+        <v>33.00853926349052</v>
       </c>
       <c r="G9">
-        <v>2.078695506138046</v>
+        <v>3.653286174774896</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.616893080991769</v>
+        <v>9.935302737688733</v>
       </c>
       <c r="K9">
-        <v>20.74779166458042</v>
+        <v>13.81819641536491</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.97927000923753</v>
+        <v>24.80392281191325</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.570200538274236</v>
+        <v>8.119140351964898</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.029723307761541</v>
+        <v>9.447970796441515</v>
       </c>
       <c r="E10">
-        <v>12.95004734921397</v>
+        <v>13.97945161241797</v>
       </c>
       <c r="F10">
-        <v>24.73541623736976</v>
+        <v>32.94288717778409</v>
       </c>
       <c r="G10">
-        <v>2.06876879680649</v>
+        <v>3.649891692488063</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.838493950952235</v>
+        <v>9.935236608243585</v>
       </c>
       <c r="K10">
-        <v>22.48978247912425</v>
+        <v>14.57424931413739</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.16162741476224</v>
+        <v>24.66342218051234</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.879546464816306</v>
+        <v>8.184226159695696</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.300165729220708</v>
+        <v>9.509500860029702</v>
       </c>
       <c r="E11">
-        <v>13.31935688369251</v>
+        <v>14.04739554121851</v>
       </c>
       <c r="F11">
-        <v>25.15892534295264</v>
+        <v>32.92310303001462</v>
       </c>
       <c r="G11">
-        <v>2.06433449129794</v>
+        <v>3.648420025645579</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.94199739197525</v>
+        <v>9.93691284073528</v>
       </c>
       <c r="K11">
-        <v>23.24284212076184</v>
+        <v>14.90559438097017</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.27183048015544</v>
+        <v>24.6064669924057</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.994298344185871</v>
+        <v>8.20899084244556</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.401131447001845</v>
+        <v>9.532885407654955</v>
       </c>
       <c r="E12">
-        <v>13.45786390139748</v>
+        <v>14.07343836433624</v>
       </c>
       <c r="F12">
-        <v>25.32312500204927</v>
+        <v>32.91706540453803</v>
       </c>
       <c r="G12">
-        <v>2.062665884453372</v>
+        <v>3.647873109499343</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.981569218198922</v>
+        <v>9.937792194919904</v>
       </c>
       <c r="K12">
-        <v>23.52239089246229</v>
+        <v>15.02916780033541</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.31769361262916</v>
+        <v>24.58590555394339</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.969690305724113</v>
+        <v>8.203652426900499</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.379451356568433</v>
+        <v>9.527845632732403</v>
       </c>
       <c r="E13">
-        <v>13.42809444358833</v>
+        <v>14.0678158964739</v>
       </c>
       <c r="F13">
-        <v>25.28759123958567</v>
+        <v>32.91830097763614</v>
       </c>
       <c r="G13">
-        <v>2.063024797804915</v>
+        <v>3.647990437217215</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.973030080731302</v>
+        <v>9.937591945078205</v>
       </c>
       <c r="K13">
-        <v>23.46243413716929</v>
+        <v>15.00263985146572</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.30762911606011</v>
+        <v>24.59028898756594</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.889034906429591</v>
+        <v>8.186261325705754</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.308501352103795</v>
+        <v>9.511423122494268</v>
       </c>
       <c r="E14">
-        <v>13.33077913712206</v>
+        <v>14.04953190969069</v>
       </c>
       <c r="F14">
-        <v>25.17235737360681</v>
+        <v>32.92257714415101</v>
       </c>
       <c r="G14">
-        <v>2.06419700902669</v>
+        <v>3.648374822955568</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.945245480565116</v>
+        <v>9.936980288388634</v>
       </c>
       <c r="K14">
-        <v>23.26595308124794</v>
+        <v>14.91579938730411</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.27551967563612</v>
+        <v>24.60475519246168</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.839320725184825</v>
+        <v>8.175623493102472</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.264853440485229</v>
+        <v>9.501374370733974</v>
       </c>
       <c r="E15">
-        <v>13.27099433225494</v>
+        <v>14.03837279828726</v>
       </c>
       <c r="F15">
-        <v>25.10227205490508</v>
+        <v>32.92538591709013</v>
       </c>
       <c r="G15">
-        <v>2.0649163633331</v>
+        <v>3.648611619504795</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.928275472868932</v>
+        <v>9.936637460460485</v>
       </c>
       <c r="K15">
-        <v>23.14487254543908</v>
+        <v>14.86235722613666</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.2563959454206</v>
+        <v>24.61374736650589</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.54964782824446</v>
+        <v>8.114904581291679</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.011848633670688</v>
+        <v>9.443962373851553</v>
       </c>
       <c r="E16">
-        <v>12.92572721377075</v>
+        <v>13.97505620558913</v>
       </c>
       <c r="F16">
-        <v>24.70827337968225</v>
+        <v>32.9443833889426</v>
       </c>
       <c r="G16">
-        <v>2.069060131876443</v>
+        <v>3.649989323702086</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.831783082113654</v>
+        <v>9.935161335450786</v>
       </c>
       <c r="K16">
-        <v>22.43977937592021</v>
+        <v>14.55233390649533</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.15499214238202</v>
+        <v>24.66728484899336</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.3755807313209</v>
+        <v>8.077889691334443</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>8.854097096163851</v>
+        <v>9.408909950876227</v>
       </c>
       <c r="E17">
-        <v>12.71158663401418</v>
+        <v>13.93679143807509</v>
       </c>
       <c r="F17">
-        <v>24.47336390883683</v>
+        <v>32.958623314603</v>
       </c>
       <c r="G17">
-        <v>2.071622266574054</v>
+        <v>3.650853031596359</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.77327073119647</v>
+        <v>9.934692304864127</v>
       </c>
       <c r="K17">
-        <v>21.99716947845897</v>
+        <v>14.35885311229178</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.09991785806976</v>
+        <v>24.70191476180958</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.288639074722019</v>
+        <v>8.056692937941252</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>8.762440040895427</v>
+        <v>9.388815722611561</v>
       </c>
       <c r="E18">
-        <v>12.58758317249152</v>
+        <v>13.91500049010073</v>
       </c>
       <c r="F18">
-        <v>24.34074162432689</v>
+        <v>32.9677624346926</v>
       </c>
       <c r="G18">
-        <v>2.073103673825082</v>
+        <v>3.651356640753114</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.739870274444705</v>
+        <v>9.934583191084812</v>
       </c>
       <c r="K18">
-        <v>21.73888193898083</v>
+        <v>14.24638788333968</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.07079308816126</v>
+        <v>24.72248768688354</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.259061985764705</v>
+        <v>8.049532773517708</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>8.731249298573898</v>
+        <v>9.382024167710682</v>
       </c>
       <c r="E19">
-        <v>12.54545643672786</v>
+        <v>13.9076604000831</v>
       </c>
       <c r="F19">
-        <v>24.29626526807273</v>
+        <v>32.97101956876088</v>
       </c>
       <c r="G19">
-        <v>2.073606614660696</v>
+        <v>3.651528328372071</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.728605474772524</v>
+        <v>9.934573861809943</v>
       </c>
       <c r="K19">
-        <v>21.65079183158691</v>
+        <v>14.20810931927898</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.06136367701816</v>
+        <v>24.72956560348209</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.391604731381985</v>
+        <v>8.081820501909343</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>8.870985775374693</v>
+        <v>9.412634525660877</v>
       </c>
       <c r="E20">
-        <v>12.73446924049412</v>
+        <v>13.94084235661794</v>
       </c>
       <c r="F20">
-        <v>24.49811242318578</v>
+        <v>32.95700922830937</v>
       </c>
       <c r="G20">
-        <v>2.071348730371697</v>
+        <v>3.650760382212</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.779473232707776</v>
+        <v>9.934725611379365</v>
       </c>
       <c r="K20">
-        <v>22.04466974300882</v>
+        <v>14.37957230616673</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.10551485892347</v>
+        <v>24.6981605474628</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.912789987871562</v>
+        <v>8.191366485968329</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.32938051731551</v>
+        <v>9.516244650902081</v>
       </c>
       <c r="E21">
-        <v>13.3593998427512</v>
+        <v>14.05489398089435</v>
       </c>
       <c r="F21">
-        <v>25.20610038412587</v>
+        <v>32.92128163259565</v>
       </c>
       <c r="G21">
-        <v>2.063852424849306</v>
+        <v>3.648261638472221</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.953396324070307</v>
+        <v>9.937153315098172</v>
       </c>
       <c r="K21">
-        <v>23.3238164132532</v>
+        <v>14.94135875319445</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.28483721256915</v>
+        <v>24.60047876456416</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>9.242380162409974</v>
+        <v>8.263639207896846</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.620537629425748</v>
+        <v>9.584444455376564</v>
       </c>
       <c r="E22">
-        <v>13.75998675966383</v>
+        <v>14.13125472698086</v>
       </c>
       <c r="F22">
-        <v>25.69111967609998</v>
+        <v>32.90640918451861</v>
       </c>
       <c r="G22">
-        <v>2.05901416465492</v>
+        <v>3.646688997355205</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>7.069261086853238</v>
+        <v>9.940165239204783</v>
       </c>
       <c r="K22">
-        <v>24.12709092486467</v>
+        <v>15.29741175340821</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.42620908435942</v>
+        <v>24.54250576676509</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.067735049028771</v>
+        <v>8.225011199992997</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.465921282329626</v>
+        <v>9.548006023406517</v>
       </c>
       <c r="E23">
-        <v>13.54691940286612</v>
+        <v>14.09033877325355</v>
       </c>
       <c r="F23">
-        <v>25.43020890877194</v>
+        <v>32.91356994993859</v>
       </c>
       <c r="G23">
-        <v>2.061591251798479</v>
+        <v>3.647522833456698</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.007223858333493</v>
+        <v>9.938427590858772</v>
       </c>
       <c r="K23">
-        <v>23.70134502211546</v>
+        <v>15.10842253496534</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.34847630705022</v>
+        <v>24.57290836161072</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.384362968791185</v>
+        <v>8.080043120354372</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>8.86335340221309</v>
+        <v>9.410950463889019</v>
       </c>
       <c r="E24">
-        <v>12.7241267850308</v>
+        <v>13.93901028722384</v>
       </c>
       <c r="F24">
-        <v>24.48691605140859</v>
+        <v>32.95773599037054</v>
       </c>
       <c r="G24">
-        <v>2.071472369833984</v>
+        <v>3.65080224702793</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.776668336299206</v>
+        <v>9.934710053386306</v>
       </c>
       <c r="K24">
-        <v>22.02320679133166</v>
+        <v>14.37020898455151</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.10297656529576</v>
+        <v>24.69985576066521</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.735656840561346</v>
+        <v>7.927325191428943</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>8.178356097799764</v>
+        <v>9.265740199638186</v>
       </c>
       <c r="E25">
-        <v>11.80508865992696</v>
+        <v>13.78417431109295</v>
       </c>
       <c r="F25">
-        <v>23.56453802012378</v>
+        <v>33.04161914335989</v>
       </c>
       <c r="G25">
-        <v>2.082430412864638</v>
+        <v>3.654600871587271</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.53775352284762</v>
+        <v>9.936844280135233</v>
       </c>
       <c r="K25">
-        <v>20.07113312729507</v>
+        <v>13.52927743467873</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.93480342722303</v>
+        <v>24.86179673434239</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_225/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_225/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>7.818807045481801</v>
+        <v>7.233403953208908</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.161649988426518</v>
+        <v>7.645669508361127</v>
       </c>
       <c r="E2">
-        <v>13.67796320441161</v>
+        <v>11.1044753738636</v>
       </c>
       <c r="F2">
-        <v>33.13432706867357</v>
+        <v>22.96584722387381</v>
       </c>
       <c r="G2">
-        <v>3.657624966194494</v>
+        <v>2.090796181028118</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.943717855007101</v>
+        <v>6.370647091771973</v>
       </c>
       <c r="K2">
-        <v>12.87557468250796</v>
+        <v>18.51047131061584</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>25.00234414343934</v>
+        <v>15.88567906454196</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>7.748103423656503</v>
+        <v>6.879289159900146</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>9.093153101097551</v>
+        <v>7.268361047158667</v>
       </c>
       <c r="E3">
-        <v>13.61111433209262</v>
+        <v>10.61700996326814</v>
       </c>
       <c r="F3">
-        <v>33.21631978249429</v>
+        <v>22.60919819724084</v>
       </c>
       <c r="G3">
-        <v>3.659817400840919</v>
+        <v>2.096669325565089</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.951689377248785</v>
+        <v>6.263107253468034</v>
       </c>
       <c r="K3">
-        <v>12.41343131606949</v>
+        <v>17.37561854587294</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>25.11078579430545</v>
+        <v>15.89452639487591</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>7.7062190359354</v>
+        <v>6.655797189018138</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>9.05219716643666</v>
+        <v>7.029271361649501</v>
       </c>
       <c r="E4">
-        <v>13.57268373807857</v>
+        <v>10.3124408581513</v>
       </c>
       <c r="F4">
-        <v>33.27606293987089</v>
+        <v>22.41389522860825</v>
       </c>
       <c r="G4">
-        <v>3.661234502412696</v>
+        <v>2.100381390732188</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.958219330258199</v>
+        <v>6.199963870797014</v>
       </c>
       <c r="K4">
-        <v>12.12120271468018</v>
+        <v>16.64083476979068</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.18384123941853</v>
+        <v>15.91921881904153</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>7.689553792019252</v>
+        <v>6.563325320615204</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>9.03579801745045</v>
+        <v>6.930088234411873</v>
       </c>
       <c r="E5">
-        <v>13.55769263197289</v>
+        <v>10.18717553601289</v>
       </c>
       <c r="F5">
-        <v>33.30276389229012</v>
+        <v>22.3401639854582</v>
       </c>
       <c r="G5">
-        <v>3.661829878419572</v>
+        <v>2.101921486664927</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.961291725580431</v>
+        <v>6.174968325469763</v>
       </c>
       <c r="K5">
-        <v>12.00015017795923</v>
+        <v>16.33189127094904</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.21523403794422</v>
+        <v>15.93389531169783</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>7.68681141416403</v>
+        <v>6.547890186964602</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>9.033092903206466</v>
+        <v>6.913516844755854</v>
       </c>
       <c r="E6">
-        <v>13.55524415362335</v>
+        <v>10.166311302031</v>
       </c>
       <c r="F6">
-        <v>33.30733954942804</v>
+        <v>22.32827136489915</v>
       </c>
       <c r="G6">
-        <v>3.661929822700615</v>
+        <v>2.102178894857094</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.961826743501025</v>
+        <v>6.170862544745175</v>
       </c>
       <c r="K6">
-        <v>11.97993578715329</v>
+        <v>16.28001840959794</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.22054460393018</v>
+        <v>15.93660430407554</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>7.705992626704377</v>
+        <v>6.654555554147544</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>9.051974806803125</v>
+        <v>7.027940672634944</v>
       </c>
       <c r="E7">
-        <v>13.57247883593335</v>
+        <v>10.31075590144057</v>
       </c>
       <c r="F7">
-        <v>33.27641351410345</v>
+        <v>22.41287729757804</v>
       </c>
       <c r="G7">
-        <v>3.661242459326931</v>
+        <v>2.10040204908371</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.958259099849782</v>
+        <v>6.199623780309714</v>
       </c>
       <c r="K7">
-        <v>12.11957789447645</v>
+        <v>16.63670670239791</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.18425805288345</v>
+        <v>15.91939837209294</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>7.794122802631111</v>
+        <v>7.112634317165988</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>9.137812056055832</v>
+        <v>7.517176035054243</v>
       </c>
       <c r="E8">
-        <v>13.65437854804483</v>
+        <v>10.93758613080672</v>
       </c>
       <c r="F8">
-        <v>33.1606424973141</v>
+        <v>22.83790710408442</v>
       </c>
       <c r="G8">
-        <v>3.658366229320456</v>
+        <v>2.092799726513332</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.94612712693743</v>
+        <v>6.332974686204304</v>
       </c>
       <c r="K8">
-        <v>12.71807840214115</v>
+        <v>18.12707209606698</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.03838844256347</v>
+        <v>15.88459490448517</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>7.978210935358105</v>
+        <v>7.95817662923216</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.314253306572825</v>
+        <v>8.413645197619187</v>
       </c>
       <c r="E9">
-        <v>13.8351577585505</v>
+        <v>12.11863765282865</v>
       </c>
       <c r="F9">
-        <v>33.00853926349052</v>
+        <v>23.8626353899309</v>
       </c>
       <c r="G9">
-        <v>3.653286174774896</v>
+        <v>2.078695506137913</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.935302737688733</v>
+        <v>6.616893080991765</v>
       </c>
       <c r="K9">
-        <v>13.81819641536491</v>
+        <v>20.7477916645804</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>24.80392281191325</v>
+        <v>15.97927000923752</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>8.119140351964898</v>
+        <v>8.570200538274175</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.447970796441515</v>
+        <v>9.029723307761556</v>
       </c>
       <c r="E10">
-        <v>13.97945161241797</v>
+        <v>12.95004734921396</v>
       </c>
       <c r="F10">
-        <v>32.94288717778409</v>
+        <v>24.73541623736954</v>
       </c>
       <c r="G10">
-        <v>3.649891692488063</v>
+        <v>2.068768796806358</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.935236608243585</v>
+        <v>6.838493950952203</v>
       </c>
       <c r="K10">
-        <v>14.57424931413739</v>
+        <v>22.48978247912425</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>24.66342218051234</v>
+        <v>16.16162741476208</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>8.184226159695696</v>
+        <v>8.879546464816231</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>9.509500860029702</v>
+        <v>9.300165729220728</v>
       </c>
       <c r="E11">
-        <v>14.04739554121851</v>
+        <v>13.31935688369254</v>
       </c>
       <c r="F11">
-        <v>32.92310303001462</v>
+        <v>25.15892534295257</v>
       </c>
       <c r="G11">
-        <v>3.648420025645579</v>
+        <v>2.064334491298208</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.93691284073528</v>
+        <v>6.941997391975264</v>
       </c>
       <c r="K11">
-        <v>14.90559438097017</v>
+        <v>23.24284212076185</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>24.6064669924057</v>
+        <v>16.27183048015534</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>8.20899084244556</v>
+        <v>8.994298344185822</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>9.532885407654955</v>
+        <v>9.401131447001873</v>
       </c>
       <c r="E12">
-        <v>14.07343836433624</v>
+        <v>13.45786390139752</v>
       </c>
       <c r="F12">
-        <v>32.91706540453803</v>
+        <v>25.32312500204917</v>
       </c>
       <c r="G12">
-        <v>3.647873109499343</v>
+        <v>2.062665884453505</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.937792194919904</v>
+        <v>6.981569218198977</v>
       </c>
       <c r="K12">
-        <v>15.02916780033541</v>
+        <v>23.52239089246232</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>24.58590555394339</v>
+        <v>16.31769361262903</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>8.203652426900499</v>
+        <v>8.969690305724113</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>9.527845632732403</v>
+        <v>9.379451356568511</v>
       </c>
       <c r="E13">
-        <v>14.0678158964739</v>
+        <v>13.42809444358834</v>
       </c>
       <c r="F13">
-        <v>32.91830097763614</v>
+        <v>25.28759123958555</v>
       </c>
       <c r="G13">
-        <v>3.647990437217215</v>
+        <v>2.063024797804915</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.937591945078205</v>
+        <v>6.973030080731274</v>
       </c>
       <c r="K13">
-        <v>15.00263985146572</v>
+        <v>23.46243413716941</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>24.59028898756594</v>
+        <v>16.30762911605994</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>8.186261325705754</v>
+        <v>8.889034906429522</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>9.511423122494268</v>
+        <v>9.308501352103752</v>
       </c>
       <c r="E14">
-        <v>14.04953190969069</v>
+        <v>13.33077913712206</v>
       </c>
       <c r="F14">
-        <v>32.92257714415101</v>
+        <v>25.17235737360666</v>
       </c>
       <c r="G14">
-        <v>3.648374822955568</v>
+        <v>2.064197009026822</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.936980288388634</v>
+        <v>6.945245480565158</v>
       </c>
       <c r="K14">
-        <v>14.91579938730411</v>
+        <v>23.26595308124804</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>24.60475519246168</v>
+        <v>16.27551967563597</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>8.175623493102472</v>
+        <v>8.839320725184848</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>9.501374370733974</v>
+        <v>9.264853440485229</v>
       </c>
       <c r="E15">
-        <v>14.03837279828726</v>
+        <v>13.27099433225493</v>
       </c>
       <c r="F15">
-        <v>32.92538591709013</v>
+        <v>25.102272054905</v>
       </c>
       <c r="G15">
-        <v>3.648611619504795</v>
+        <v>2.064916363332831</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.936637460460485</v>
+        <v>6.928275472868907</v>
       </c>
       <c r="K15">
-        <v>14.86235722613666</v>
+        <v>23.14487254543912</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>24.61374736650589</v>
+        <v>16.25639594542052</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>8.114904581291679</v>
+        <v>8.549647828244456</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>9.443962373851553</v>
+        <v>9.01184863367067</v>
       </c>
       <c r="E16">
-        <v>13.97505620558913</v>
+        <v>12.92572721377072</v>
       </c>
       <c r="F16">
-        <v>32.9443833889426</v>
+        <v>24.70827337968222</v>
       </c>
       <c r="G16">
-        <v>3.649989323702086</v>
+        <v>2.069060131876178</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.935161335450786</v>
+        <v>6.831783082113609</v>
       </c>
       <c r="K16">
-        <v>14.55233390649533</v>
+        <v>22.43977937592019</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>24.66728484899336</v>
+        <v>16.15499214238202</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>8.077889691334443</v>
+        <v>8.375580731320882</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>9.408909950876227</v>
+        <v>8.854097096163819</v>
       </c>
       <c r="E17">
-        <v>13.93679143807509</v>
+        <v>12.71158663401415</v>
       </c>
       <c r="F17">
-        <v>32.958623314603</v>
+        <v>24.47336390883678</v>
       </c>
       <c r="G17">
-        <v>3.650853031596359</v>
+        <v>2.071622266574054</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.934692304864127</v>
+        <v>6.77327073119647</v>
       </c>
       <c r="K17">
-        <v>14.35885311229178</v>
+        <v>21.99716947845898</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>24.70191476180958</v>
+        <v>16.09991785806978</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>8.056692937941252</v>
+        <v>8.288639074721999</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>9.388815722611561</v>
+        <v>8.762440040895402</v>
       </c>
       <c r="E18">
-        <v>13.91500049010073</v>
+        <v>12.58758317249149</v>
       </c>
       <c r="F18">
-        <v>32.9677624346926</v>
+        <v>24.34074162432669</v>
       </c>
       <c r="G18">
-        <v>3.651356640753114</v>
+        <v>2.073103673824948</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.934583191084812</v>
+        <v>6.73987027444467</v>
       </c>
       <c r="K18">
-        <v>14.24638788333968</v>
+        <v>21.7388819389809</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>24.72248768688354</v>
+        <v>16.07079308816111</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>8.049532773517708</v>
+        <v>8.259061985764719</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>9.382024167710682</v>
+        <v>8.731249298573902</v>
       </c>
       <c r="E19">
-        <v>13.9076604000831</v>
+        <v>12.54545643672785</v>
       </c>
       <c r="F19">
-        <v>32.97101956876088</v>
+        <v>24.29626526807258</v>
       </c>
       <c r="G19">
-        <v>3.651528328372071</v>
+        <v>2.073606614660563</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.934573861809943</v>
+        <v>6.728605474772471</v>
       </c>
       <c r="K19">
-        <v>14.20810931927898</v>
+        <v>21.65079183158694</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>24.72956560348209</v>
+        <v>16.06136367701802</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>8.081820501909343</v>
+        <v>8.391604731381957</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>9.412634525660877</v>
+        <v>8.87098577537472</v>
       </c>
       <c r="E20">
-        <v>13.94084235661794</v>
+        <v>12.73446924049413</v>
       </c>
       <c r="F20">
-        <v>32.95700922830937</v>
+        <v>24.49811242318557</v>
       </c>
       <c r="G20">
-        <v>3.650760382212</v>
+        <v>2.071348730371832</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.934725611379365</v>
+        <v>6.779473232707761</v>
       </c>
       <c r="K20">
-        <v>14.37957230616673</v>
+        <v>22.04466974300893</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>24.6981605474628</v>
+        <v>16.10551485892329</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>8.191366485968329</v>
+        <v>8.912789987871538</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>9.516244650902081</v>
+        <v>9.329380517315515</v>
       </c>
       <c r="E21">
-        <v>14.05489398089435</v>
+        <v>13.35939984275119</v>
       </c>
       <c r="F21">
-        <v>32.92128163259565</v>
+        <v>25.20610038412584</v>
       </c>
       <c r="G21">
-        <v>3.648261638472221</v>
+        <v>2.063852424849172</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.937153315098172</v>
+        <v>6.953396324070297</v>
       </c>
       <c r="K21">
-        <v>14.94135875319445</v>
+        <v>23.3238164132532</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.60047876456416</v>
+        <v>16.28483721256912</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>8.263639207896846</v>
+        <v>9.242380162410017</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>9.584444455376564</v>
+        <v>9.620537629425748</v>
       </c>
       <c r="E22">
-        <v>14.13125472698086</v>
+        <v>13.75998675966384</v>
       </c>
       <c r="F22">
-        <v>32.90640918451861</v>
+        <v>25.69111967609992</v>
       </c>
       <c r="G22">
-        <v>3.646688997355205</v>
+        <v>2.059014164654919</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.940165239204783</v>
+        <v>7.069261086853261</v>
       </c>
       <c r="K22">
-        <v>15.29741175340821</v>
+        <v>24.12709092486467</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>24.54250576676509</v>
+        <v>16.42620908435937</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>8.225011199992997</v>
+        <v>9.067735049028803</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>9.548006023406517</v>
+        <v>9.465921282329617</v>
       </c>
       <c r="E23">
-        <v>14.09033877325355</v>
+        <v>13.54691940286613</v>
       </c>
       <c r="F23">
-        <v>32.91356994993859</v>
+        <v>25.43020890877195</v>
       </c>
       <c r="G23">
-        <v>3.647522833456698</v>
+        <v>2.061591251798479</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.938427590858772</v>
+        <v>7.007223858333515</v>
       </c>
       <c r="K23">
-        <v>15.10842253496534</v>
+        <v>23.70134502211545</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.57290836161072</v>
+        <v>16.34847630705024</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>8.080043120354372</v>
+        <v>8.384362968791169</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>9.410950463889019</v>
+        <v>8.863353402213168</v>
       </c>
       <c r="E24">
-        <v>13.93901028722384</v>
+        <v>12.72412678503074</v>
       </c>
       <c r="F24">
-        <v>32.95773599037054</v>
+        <v>24.48691605140847</v>
       </c>
       <c r="G24">
-        <v>3.65080224702793</v>
+        <v>2.071472369833851</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.934710053386306</v>
+        <v>6.776668336299093</v>
       </c>
       <c r="K24">
-        <v>14.37020898455151</v>
+        <v>22.02320679133175</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>24.69985576066521</v>
+        <v>16.10297656529561</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>7.927325191428943</v>
+        <v>7.735656840561339</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.265740199638186</v>
+        <v>8.178356097799789</v>
       </c>
       <c r="E25">
-        <v>13.78417431109295</v>
+        <v>11.80508865992697</v>
       </c>
       <c r="F25">
-        <v>33.04161914335989</v>
+        <v>23.56453802012368</v>
       </c>
       <c r="G25">
-        <v>3.654600871587271</v>
+        <v>2.082430412864636</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.936844280135233</v>
+        <v>6.53775352284762</v>
       </c>
       <c r="K25">
-        <v>13.52927743467873</v>
+        <v>20.07113312729514</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>24.86179673434239</v>
+        <v>15.9348034272229</v>
       </c>
     </row>
   </sheetData>
